--- a/3-course-6-semester/game-theory/Бронников ПМ-1901 - Анализ платёжной матрица.xlsx
+++ b/3-course-6-semester/game-theory/Бронников ПМ-1901 - Анализ платёжной матрица.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bronn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\egor\github\university\3-course-6-semester\game-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228A430-C4FD-4555-AB3B-2F35A0937E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1DBDB-CDA8-418C-889B-23684D8A19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" xr2:uid="{014FD5D8-6377-47C8-8ED7-EB12F91E9EBA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Матрица" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>№</t>
   </si>
@@ -113,12 +113,21 @@
       <t xml:space="preserve"> =</t>
     </r>
   </si>
+  <si>
+    <t>Достигается при i =</t>
+  </si>
+  <si>
+    <t>Достигается при j =</t>
+  </si>
+  <si>
+    <t>Седловая точка есть?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +183,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +205,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -348,31 +371,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -384,7 +392,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -402,7 +410,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -411,6 +419,111 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -426,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,35 +571,163 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -608,7 +849,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$N$4:$N$15</c:f>
+              <c:f>Матрица!$N$4:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -616,7 +857,7 @@
                   <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-18</c:v>
@@ -655,6 +896,64 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-027D-4A0C-9841-E9A5E421696F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Матрица!$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Матрица!$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D1B-404A-AD99-45034F46AE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -948,7 +1247,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$17:$L$17</c:f>
+              <c:f>Матрица!$C$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -989,6 +1288,64 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9BD3-468A-9DAB-AA7BF29EA244}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Матрица!$S$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Матрица!$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EA37-4E36-9E9D-EB320B98724A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2367,6 +2724,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -2664,35 +3025,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCC4BA2-0C0D-4E67-81B5-BBF151E10AEC}">
-  <dimension ref="A2:P20"/>
+  <dimension ref="A2:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -2728,10 +3090,10 @@
       <c r="L3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="11"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -2767,7 +3129,7 @@
       <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="12">
         <f>MIN(C4:L4)</f>
         <v>-2</v>
       </c>
@@ -2786,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="5">
         <v>3</v>
@@ -2806,9 +3168,9 @@
       <c r="L5" s="6">
         <v>8</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="13">
         <f t="shared" ref="N5:N15" si="0">MIN(C5:L5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -2845,7 +3207,7 @@
       <c r="L6" s="6">
         <v>-18</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="13">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
@@ -2884,7 +3246,7 @@
       <c r="L7" s="6">
         <v>-58</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="13">
         <f t="shared" si="0"/>
         <v>-58</v>
       </c>
@@ -2923,7 +3285,7 @@
       <c r="L8" s="6">
         <v>3</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="13">
         <f t="shared" si="0"/>
         <v>-43</v>
       </c>
@@ -2962,7 +3324,7 @@
       <c r="L9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="13">
         <f t="shared" si="0"/>
         <v>-56</v>
       </c>
@@ -3001,7 +3363,7 @@
       <c r="L10" s="6">
         <v>3</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="13">
         <f t="shared" si="0"/>
         <v>-82</v>
       </c>
@@ -3040,7 +3402,7 @@
       <c r="L11" s="6">
         <v>-108</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="13">
         <f t="shared" si="0"/>
         <v>-108</v>
       </c>
@@ -3079,7 +3441,7 @@
       <c r="L12" s="6">
         <v>-98</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="13">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
@@ -3118,7 +3480,7 @@
       <c r="L13" s="6">
         <v>-88</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="13">
         <f t="shared" si="0"/>
         <v>-108</v>
       </c>
@@ -3157,7 +3519,7 @@
       <c r="L14" s="6">
         <v>-78</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="13">
         <f t="shared" si="0"/>
         <v>-121</v>
       </c>
@@ -3196,82 +3558,139 @@
       <c r="L15" s="9">
         <v>-68</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="14">
         <f t="shared" si="0"/>
         <v>-134</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:16" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13">
+      <c r="B17" s="16"/>
+      <c r="C17" s="11">
         <f>MAX(C4:C15)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <f t="shared" ref="D17:L17" si="1">MAX(D4:D15)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="11">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="11">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="11">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="11">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="30">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="O19" t="s">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="O19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="19">
         <f>MAX(N4:N15)</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="20"/>
+      <c r="S19" s="21">
+        <f>MATCH(P19,N4:N15,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="O20" t="s">
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="O20" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="23">
         <f>MIN(C17:L17)</f>
         <v>3</v>
       </c>
+      <c r="Q20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25">
+        <f>MATCH(P20,C17:L17)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28" t="str">
+        <f>IF(P19=P20,"ДА","НЕТ")</f>
+        <v>ДА</v>
+      </c>
+      <c r="S21" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:S21"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="N3:O3"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
+  <conditionalFormatting sqref="N4:N15">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$N4=$P$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:L17">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>C$17=$P$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:L15">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$C$17=$N$4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>AND($C$4=$C$17, $C$4=$N$4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>AND(C4=$C17,C4=N$4)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(C4=C$17,C4=$N4)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="C17:L17 N4:N15" formulaRange="1"/>

--- a/3-course-6-semester/game-theory/Бронников ПМ-1901 - Анализ платёжной матрица.xlsx
+++ b/3-course-6-semester/game-theory/Бронников ПМ-1901 - Анализ платёжной матрица.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\egor\github\university\3-course-6-semester\game-theory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA1DBDB-CDA8-418C-889B-23684D8A19C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68F8138-90C8-42CB-8ABD-56F38599D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="4560" windowWidth="20730" windowHeight="11310" xr2:uid="{014FD5D8-6377-47C8-8ED7-EB12F91E9EBA}"/>
+    <workbookView xWindow="3495" yWindow="6750" windowWidth="15375" windowHeight="8085" xr2:uid="{014FD5D8-6377-47C8-8ED7-EB12F91E9EBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Матрица" sheetId="1" r:id="rId1"/>
@@ -583,23 +583,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -610,11 +598,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -628,14 +616,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -661,55 +661,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2724,10 +2675,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -3028,7 +2975,7 @@
   <dimension ref="A2:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,22 +2986,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
@@ -3090,10 +3037,10 @@
       <c r="L3" s="10">
         <v>10</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="28"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
@@ -3565,10 +3512,10 @@
     </row>
     <row r="16" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="11">
         <f>MAX(C4:C15)</f>
         <v>10</v>
@@ -3605,57 +3552,57 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="21">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="O19" s="18" t="s">
+      <c r="O19" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="16">
         <f>MAX(N4:N15)</f>
         <v>3</v>
       </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R19" s="20"/>
-      <c r="S19" s="21">
+      <c r="R19" s="29"/>
+      <c r="S19" s="17">
         <f>MATCH(P19,N4:N15,0)</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="O20" s="22" t="s">
+      <c r="O20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="19">
         <f>MIN(C17:L17)</f>
         <v>3</v>
       </c>
-      <c r="Q20" s="24" t="s">
+      <c r="Q20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="R20" s="24"/>
-      <c r="S20" s="25">
+      <c r="R20" s="30"/>
+      <c r="S20" s="20">
         <f>MATCH(P20,C17:L17)</f>
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28" t="str">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24" t="str">
         <f>IF(P19=P20,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="S21" s="29"/>
+      <c r="S21" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3668,26 +3615,26 @@
     <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <conditionalFormatting sqref="N4:N15">
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$N4=$P$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:L17">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>C$17=$P$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:L15">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$C$17=$N$4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND($C$4=$C$17, $C$4=$N$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(C4=$C17,C4=N$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(C4=C$17,C4=$N4)</formula>
     </cfRule>
   </conditionalFormatting>
